--- a/documentos.xlsx
+++ b/documentos.xlsx
@@ -32,7 +32,7 @@
     <t>Documento 5</t>
   </si>
   <si>
-    <t>Tue Apr 09 13:19:50 CEST 2019</t>
+    <t>Tue Apr 09 14:04:22 CEST 2019</t>
   </si>
   <si>
     <t>DOCUMENTO_CONTABLE</t>
